--- a/biology/Médecine/Rosalie_Bertell/Rosalie_Bertell.xlsx
+++ b/biology/Médecine/Rosalie_Bertell/Rosalie_Bertell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosalie Bertell, née le 4 avril 1929 à Buffalo et morte le 14 juin 2012[1], est une religieuse, médecin et militante américaine qui s'est consacrée à l'environnement et la santé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosalie Bertell, née le 4 avril 1929 à Buffalo et morte le 14 juin 2012, est une religieuse, médecin et militante américaine qui s'est consacrée à l'environnement et la santé.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosalie Bertell est née à Buffalo, dans l'État de New York, d'une mère canadienne et d'un père américain. Elle appartient à l'ordre des Sœurs de la Charité de Montréal[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosalie Bertell est née à Buffalo, dans l'État de New York, d'une mère canadienne et d'un père américain. Elle appartient à l'ordre des Sœurs de la Charité de Montréal
 En 1966, elle obtient un Ph. D. en biométrie à l'université catholique d'Amérique. De 1969 à 1978, elle exerce comme cancérologue en gériatrie à l'Institut Roswell Park sur le cancer à Buffalo. Elle est consultée par l'Autorité de sûreté nucléaire américaine et l'Environmental Protection Agency aux États-Unis et par le ministère de la santé du Canada.
 Rosalie Bertell est la fondatrice de l'Institut international pour la santé publique, dont elle est présidente de 1987 à 2001, et de la Commission médicale internationale sur Tchernobyl en 1996 et elle est aussi membre de la Commission médicale internationale sur la catastrophe de Bhopal.
-Rosalie Bertell est consultée par le groupe écologiste au Parlement européen sur le projet Haarp et contribue ainsi à l'élaboration et à la diffusion des théories du complot relatives  aux chemtrails[3].
+Rosalie Bertell est consultée par le groupe écologiste au Parlement européen sur le projet Haarp et contribue ainsi à l'élaboration et à la diffusion des théories du complot relatives  aux chemtrails.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosalie Bertell a reçu
 le Right Livelihood Award en 1986, « pour son travail de sensibilisation de l'opinion publique sur la destruction de la biosphère et du patrimoine génétique humain, en particulier par des radiations de faible niveau. »[a 1].
@@ -582,7 +598,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Notre travail vise à attirer l'attention sur la nécessité de développer la sécurité pour le village mondial, réuni son besoin d'air pur, eau, nourriture et un habitat sain, ainsi qu'à favoriser la clarté de la vision sur la coopération et de développement. »
@@ -616,7 +634,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rosalie Bertell, Sans danger immédiat ?, Montréal, Pleine lune, 2005, 673 p. (ISBN 978-2-89024-046-9)
 Rosalie Bertell et Chris Busby, Recommandations 2003 du Comité Européen sur le Risque de l'Irradiation, Paris, Ed Frison-Roche, 2004, 224 p. (ISBN 978-2-87671-449-6, OCLC 469254729)
@@ -650,6 +670,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
